--- a/biology/Zoologie/Eurema_daira/Eurema_daira.xlsx
+++ b/biology/Zoologie/Eurema_daira/Eurema_daira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Eurema daira est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema daira a été nommé par Jean-Baptiste Godart en 1819.
-Synonymes : Pieris daira Godart, [1819][1].
-Noms vernaculaires
-Ce papillon se nomme en anglais Fairy Yellow ou Barred Sulphur ou Barred Yellow.
+Synonymes : Pieris daira Godart, .
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Fairy Yellow ou Barred Sulphur ou Barred Yellow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema_daira</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema daira daira présent en Louisiane, Floride et Virginie
 Eurema daira eugenia Wallengren, 1860; au Mexique, à Panama, au Costa Rica et au Guatemala.
@@ -553,41 +604,7 @@
 Eurema daira macheti Brévignon, 1996; en Guyane.
 Eurema daira palmira (Poey, 1853); présent à Cuba, aux Bahamas et à la Martinique.
 Eurema daira sidonia (R. Felder, 1860); présent au Mexique
-Eurema daira phoenicia (C. et R. Felder, 1865) est un synonyme de Eurema daira lydia [1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurema_daira</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il présente un dimorphisme sexuel et un dimorphisme suivant la saison. Sur le dessus le mâle est jaune bordé d'une large bande noire englobant tout l'apex des antérieures, moins large et même discontinue ou partiellement absente aux postérieures. Les femelles sont d'une couleur plus claire, jaune pâle à blanche avec la même bordure marron. Durant la saison humide les deux sexes sont plus petits avec plus de marques et de suffusions foncées[2].
-Le revers est blanc crème à ocre pâle suivant la saison.
-Chenille
-La chenille est de couleur vert clair. 
+Eurema daira phoenicia (C. et R. Felder, 1865) est un synonyme de Eurema daira lydia .
 </t>
         </is>
       </c>
@@ -613,13 +630,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes des chenilles sont des fabacés : Aeschynomene villosa et Aeschynomene americana en Guadeloupe. Aeschynomene viscidula est une autre de ses plantes hôtes[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente un dimorphisme sexuel et un dimorphisme suivant la saison. Sur le dessus le mâle est jaune bordé d'une large bande noire englobant tout l'apex des antérieures, moins large et même discontinue ou partiellement absente aux postérieures. Les femelles sont d'une couleur plus claire, jaune pâle à blanche avec la même bordure marron. Durant la saison humide les deux sexes sont plus petits avec plus de marques et de suffusions foncées.
+Le revers est blanc crème à ocre pâle suivant la saison.
 </t>
         </is>
       </c>
@@ -645,20 +664,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Amérique du Sud, Amérique centrale, Caraïbes et sud-est de l'Amérique du Nord[1].
-Aux États-Unis il réside en Virginie, Caroline du Nord, Caroline du Sud, Géorgie, Floride et Louisiane. Quelques isolats sont présents en Arkansas, Oklahoma, Mississippi, Texas[2].
-En France il est présent à la Guadeloupe, en Martinique et en Guyane[3]
-Biotope
-Il réside dans les bois clairs, les pâturages en zone tropicale et subtropicale.
-Sur les autres projets Wikimedia :
-Eurema daira, sur Wikimedia CommonsEurema daira, sur Wikispecies
-Protection
-Pas de statut de protection particulier[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur vert clair. 
 </t>
         </is>
       </c>
@@ -684,10 +701,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des fabacés : Aeschynomene villosa et Aeschynomene americana en Guadeloupe. Aeschynomene viscidula est une autre de ses plantes hôtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_daira</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Sud, Amérique centrale, Caraïbes et sud-est de l'Amérique du Nord.
+Aux États-Unis il réside en Virginie, Caroline du Nord, Caroline du Sud, Géorgie, Floride et Louisiane. Quelques isolats sont présents en Arkansas, Oklahoma, Mississippi, Texas.
+En France il est présent à la Guadeloupe, en Martinique et en Guyane
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_daira</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les bois clairs, les pâturages en zone tropicale et subtropicale.
+Sur les autres projets Wikimedia :
+Eurema daira, sur Wikimedia CommonsEurema daira, sur Wikispecies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_daira</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_daira</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_daira</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1995 (valeur faciale : 85 c.).
 </t>
